--- a/pabi_hr_salary/xlsx_template/hr_salary.xlsx
+++ b/pabi_hr_salary/xlsx_template/hr_salary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="69">
   <si>
     <t xml:space="preserve">LineNumber</t>
   </si>
@@ -64,9 +64,15 @@
     <t xml:space="preserve">เงินกู้ธนาคารกรุงเทพ ต.ค. 60</t>
   </si>
   <si>
+    <t xml:space="preserve">ธนาคารกรุงเทพ จำกัด</t>
+  </si>
+  <si>
     <t xml:space="preserve">เงินกู้ธนาคารออมสิน ต.ค. 60</t>
   </si>
   <si>
+    <t xml:space="preserve">ธนาคารออมสิน สาขาทียูโดม รังสิต</t>
+  </si>
+  <si>
     <t xml:space="preserve">เงินสะสมกองทุนสำรองเลี้ยงชีพ ต.ค. 60</t>
   </si>
   <si>
@@ -76,31 +82,256 @@
     <t xml:space="preserve">ธนาคารกรุงเทพ  ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ธนาคาร กรุงเทพ จำกัด </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">มหาชน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">สาขาอุทยานวิทยาศาสตร์</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ธนาคารกรุงไทย ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ธนาคาร กรุงไทย จำกัด </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">มหาชน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">เงินกู้ ธอส ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ธนาคาร อาคารสงเคราะห์ เพื่อชำระหนี้เงินกู้ พื่อที่อยู่อาศัยของพนักงาน สวทช</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">เงินกู้ธนาคารกรุงไทย ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">บมจ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ธนาคารกรุงไทย เพื่อชำระหนี้เงินกู้สวัสดิการ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">เงินหักสหกรณ์ สวทช. ต.ค. 60</t>
   </si>
   <si>
+    <t xml:space="preserve">สหกรณ์ออมทรัพย์สำนักงาน</t>
+  </si>
+  <si>
     <t xml:space="preserve">เงินหักสหกรณ์กระทรวงวิทย์ ต.ค. 60</t>
   </si>
   <si>
+    <t xml:space="preserve">สหกรณ์ออมทรัพย์ กระทรวงวิทยาศาสตร์ฯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">เงินเดือนพนักงานโครงการพิเศษที่ใช้ทุนประเดิม ต.ค. 60</t>
   </si>
   <si>
+    <t xml:space="preserve">ศูนย์บริการปรึกษาการออกแบบและวิศวกรรม</t>
+  </si>
+  <si>
     <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์-นโยบายหุ้นไม่เกิน 25%ซึ่งจดทะเบียนแล้ว ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์ ซึ่งจดทะเบียนแล้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ผสม</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์-นโยบายตราสารหนี้ ซึ่งจดทะเบียนแล้ว ต.ค. 60</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์ ซึ่งจดทะเบียนแล้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ผสม หุ้นไม่เกินร้อยละ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์-นโยบายตราสารทุน ต.ค. 60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">กองทุนสำรองเลี้ยงชีพ เค มาสเตอร์ พูล ฟันด์ ซึ่งจดทะเบียนแล้ว</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ตราสารทุน</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">เงินเดือนและสวัสดิการ</t>
@@ -203,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,24 +479,23 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -347,15 +577,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,25 +669,24 @@
   </sheetPr>
   <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:F15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.015306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="24.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.56632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="73.1275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1021" min="12" style="1" width="10.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="10.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.7857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="23.4540816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.0969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="70.8061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1021" min="12" style="1" width="10.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,7 +727,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -525,9 +754,11 @@
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -552,11 +783,13 @@
         <v>-10000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -581,11 +814,11 @@
         <v>-10000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -610,11 +843,11 @@
         <v>-10000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -639,11 +872,13 @@
         <v>-300000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -668,11 +903,13 @@
         <v>-280000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -686,6 +923,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
       <c r="G8" s="1" t="n">
         <v>2102019900</v>
       </c>
@@ -696,11 +934,13 @@
         <v>-10000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -713,6 +953,7 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="1" t="n">
         <v>2102019900</v>
@@ -724,11 +965,13 @@
         <v>-10000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -753,11 +996,13 @@
         <v>-10000</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -782,11 +1027,13 @@
         <v>-10000</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -811,11 +1058,13 @@
         <v>-10000</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -840,11 +1089,13 @@
         <v>-10000</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -869,11 +1120,13 @@
         <v>-10000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -898,9 +1151,11 @@
         <v>-10000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -916,10 +1171,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5102020001</v>
@@ -931,7 +1186,7 @@
         <v>10000</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +1203,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>5101010001</v>
@@ -963,7 +1218,7 @@
         <v>10000</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,10 +1235,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>5101010001</v>
@@ -995,7 +1250,7 @@
         <v>10000</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +1267,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>5101010001</v>
@@ -1027,7 +1282,7 @@
         <v>10000</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>5101010001</v>
@@ -1059,7 +1314,7 @@
         <v>10000</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>5101010001</v>
@@ -1091,7 +1346,7 @@
         <v>10000</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>5101010001</v>
@@ -1123,7 +1378,7 @@
         <v>10000</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,22 +1395,22 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>5101010002</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,22 +1427,22 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>5101010002</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,22 +1459,22 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>5101010002</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,10 +1491,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>5101020001</v>
@@ -1251,7 +1506,7 @@
         <v>10000</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>5101020001</v>
@@ -1283,7 +1538,7 @@
         <v>10000</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5101020001</v>
@@ -1315,7 +1570,7 @@
         <v>10000</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5101020001</v>
@@ -1347,7 +1602,7 @@
         <v>10000</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,22 +1619,22 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>5101020002</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>10000</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>5101030001</v>
@@ -1411,7 +1666,7 @@
         <v>10000</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,10 +1683,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>5101030001</v>
@@ -1443,7 +1698,7 @@
         <v>10000</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>5101030001</v>
@@ -1475,7 +1730,7 @@
         <v>10000</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,10 +1747,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>5101030001</v>
@@ -1507,7 +1762,7 @@
         <v>10000</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,10 +1779,10 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>5101030001</v>
@@ -1539,7 +1794,7 @@
         <v>10000</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,10 +1811,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>5101030001</v>
@@ -1571,7 +1826,7 @@
         <v>10000</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,10 +1843,10 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>5102030001</v>
@@ -1603,7 +1858,7 @@
         <v>10000</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,10 +1875,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>5102030001</v>
@@ -1635,7 +1890,7 @@
         <v>10000</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,10 +1907,10 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>5102040001</v>
@@ -1667,7 +1922,7 @@
         <v>10000</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>5102050001</v>
@@ -1699,7 +1954,7 @@
         <v>10000</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>5102080001</v>
@@ -1731,7 +1986,7 @@
         <v>10000</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,22 +2003,22 @@
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,22 +2035,22 @@
         <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I43" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,22 +2067,22 @@
         <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,22 +2099,22 @@
         <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I45" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,22 +2131,22 @@
         <v>12</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,22 +2163,22 @@
         <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,22 +2195,22 @@
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,22 +2227,22 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,22 +2259,22 @@
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,22 +2291,22 @@
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,22 +2323,22 @@
         <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,22 +2355,22 @@
         <v>12</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,22 +2387,22 @@
         <v>12</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,22 +2419,22 @@
         <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I55" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,22 +2451,22 @@
         <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I56" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,22 +2483,22 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I57" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,22 +2515,22 @@
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I58" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,22 +2547,22 @@
         <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I59" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,22 +2579,22 @@
         <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,22 +2611,22 @@
         <v>12</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,22 +2643,22 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,22 +2675,22 @@
         <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,22 +2707,22 @@
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,22 +2739,22 @@
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2516,22 +2771,22 @@
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,22 +2803,22 @@
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I67" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,22 +2835,22 @@
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I68" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,22 +2867,22 @@
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I69" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,22 +2899,22 @@
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I70" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,22 +2931,22 @@
         <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I71" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,22 +2963,22 @@
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,22 +2995,22 @@
         <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2772,22 +3027,22 @@
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,22 +3059,22 @@
         <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,22 +3091,22 @@
         <v>12</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,22 +3123,22 @@
         <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,22 +3155,22 @@
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,22 +3187,22 @@
         <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I79" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,22 +3219,22 @@
         <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I80" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,22 +3251,22 @@
         <v>12</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I81" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,22 +3283,22 @@
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I82" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,22 +3315,22 @@
         <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I83" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,22 +3347,22 @@
         <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,22 +3379,22 @@
         <v>12</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>5201010003</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>10000</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
